--- a/input/euro real estate.xlsx
+++ b/input/euro real estate.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="930" yWindow="0" windowWidth="18270" windowHeight="12180"/>
+    <workbookView xWindow="1860" yWindow="0" windowWidth="18270" windowHeight="12180" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -309,7 +309,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="172" formatCode="dd\.mm\.yy"/>
+    <numFmt numFmtId="164" formatCode="dd\.mm\.yy"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -366,7 +366,7 @@
   <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="172" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="4" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -377,6 +377,16 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF3E9F58"/>
+      <color rgb="FFD9593C"/>
+      <color rgb="FF87C6D5"/>
+      <color rgb="FFE6C061"/>
+      <color rgb="FF1075A6"/>
+      <color rgb="FFFF6699"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -435,7 +445,7 @@
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:srgbClr val="1075A6"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -625,7 +635,7 @@
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent2"/>
+                <a:srgbClr val="E6C061"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -936,7 +946,7 @@
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent4"/>
+                <a:srgbClr val="87C6D5"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -1126,7 +1136,7 @@
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent5"/>
+                <a:srgbClr val="D9593C"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -1316,7 +1326,7 @@
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent6"/>
+                <a:srgbClr val="3E9F58"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -1498,11 +1508,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="378438232"/>
-        <c:axId val="378432744"/>
+        <c:axId val="315200216"/>
+        <c:axId val="315200600"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="378438232"/>
+        <c:axId val="315200216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="39508"/>
@@ -1540,7 +1550,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="378432744"/>
+        <c:crossAx val="315200600"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
@@ -1549,7 +1559,7 @@
         <c:majorTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="378432744"/>
+        <c:axId val="315200600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="25"/>
@@ -1587,7 +1597,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="378438232"/>
+        <c:crossAx val="315200216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="10"/>
@@ -1651,12 +1661,7 @@
       <a:schemeClr val="bg1"/>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
+      <a:noFill/>
       <a:round/>
     </a:ln>
     <a:effectLst/>
@@ -2275,12 +2280,12 @@
 <c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.05358</cdr:x>
-      <cdr:y>0.02877</cdr:y>
+      <cdr:x>0.04056</cdr:x>
+      <cdr:y>0.03249</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.40949</cdr:x>
-      <cdr:y>0.11558</cdr:y>
+      <cdr:x>0.39647</cdr:x>
+      <cdr:y>0.1193</cdr:y>
     </cdr:to>
     <cdr:sp macro="" textlink="">
       <cdr:nvSpPr>
@@ -2289,8 +2294,8 @@
       </cdr:nvSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="431164" y="73661"/>
-          <a:ext cx="2863850" cy="222249"/>
+          <a:off x="326368" y="83185"/>
+          <a:ext cx="2863908" cy="222262"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <a:avLst/>
@@ -2328,7 +2333,7 @@
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Aspect">
+    <a:clrScheme name="MS Colors">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2342,28 +2347,28 @@
         <a:srgbClr val="E3DED1"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="F07F09"/>
+        <a:srgbClr val="1075A6"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="9F2936"/>
+        <a:srgbClr val="E6C061"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="1B587C"/>
+        <a:srgbClr val="87C6D5"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="4E8542"/>
+        <a:srgbClr val="D9593C"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="604878"/>
+        <a:srgbClr val="3E9F58"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="C19859"/>
+        <a:srgbClr val="622946"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="6B9F25"/>
+        <a:srgbClr val="96D36E"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="B26B02"/>
+        <a:srgbClr val="E9787D"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
@@ -2590,7 +2595,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AR365"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection activeCell="A88" sqref="A88"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
@@ -42703,8 +42708,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AQ6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26:D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
